--- a/examples/sources/data/unsolved/to_schedule/2019-01-10.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-10.xlsx
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>1</v>
